--- a/adresni_plan_v1.xlsx
+++ b/adresni_plan_v1.xlsx
@@ -170,7 +170,7 @@
     <t>RAC scan</t>
   </si>
   <si>
-    <t>GW ka unutra…</t>
+    <t>GW ka unutra</t>
   </si>
 </sst>
 </file>
@@ -536,8 +536,8 @@
   </sheetPr>
   <dimension ref="A1:F35"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G32" sqref="G32"/>
+    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="G30" sqref="G30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
